--- a/docs/StructureDefinition-VACytopathologyLabOrder.xlsx
+++ b/docs/StructureDefinition-VACytopathologyLabOrder.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="332">
   <si>
     <t>Path</t>
   </si>
@@ -326,138 +326,135 @@
     <t>DiagnosticReport.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier</t>
+  </si>
+  <si>
+    <t>ReportID
+Filler IDPlacer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier for report</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this report by the performer or other systems.</t>
+  </si>
+  <si>
+    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>What was requested</t>
+  </si>
+  <si>
+    <t>Details concerning a test or procedure requested.</t>
+  </si>
+  <si>
+    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
+  </si>
+  <si>
+    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier</t>
-  </si>
-  <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier for report</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this report by the performer or other systems.</t>
-  </si>
-  <si>
-    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>What was requested</t>
-  </si>
-  <si>
-    <t>Details concerning a test or procedure requested.</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
-  </si>
-  <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2185,7 +2182,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2204,15 +2201,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2249,14 +2248,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>104</v>
@@ -2283,7 +2284,7 @@
         <v>44</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>44</v>
@@ -2295,7 +2296,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2314,16 +2315,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2373,7 +2374,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2405,11 +2406,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2428,19 +2429,19 @@
         <v>55</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2489,7 +2490,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2507,25 +2508,25 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2544,19 +2545,19 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2605,7 +2606,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2623,13 +2624,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2637,7 +2638,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2660,13 +2661,13 @@
         <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2717,7 +2718,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2741,7 +2742,7 @@
         <v>44</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2749,11 +2750,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2772,16 +2773,16 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2819,19 +2820,19 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2855,7 +2856,7 @@
         <v>44</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>44</v>
@@ -2863,16 +2864,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>42</v>
@@ -2890,13 +2891,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2947,7 +2948,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2962,7 +2963,7 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>44</v>
@@ -2979,7 +2980,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3002,16 +3003,16 @@
         <v>55</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3061,7 +3062,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3070,7 +3071,7 @@
         <v>54</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>44</v>
@@ -3093,7 +3094,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3116,16 +3117,16 @@
         <v>55</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3175,7 +3176,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3199,7 +3200,7 @@
         <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3207,7 +3208,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3230,16 +3231,16 @@
         <v>55</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3289,7 +3290,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3321,7 +3322,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3347,16 +3348,16 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3381,14 +3382,14 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X19" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>54</v>
@@ -3423,25 +3424,25 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3460,16 +3461,16 @@
         <v>55</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3495,14 +3496,14 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3540,22 +3541,22 @@
         <v>44</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3574,13 +3575,13 @@
         <v>55</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3607,14 +3608,14 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>54</v>
@@ -3649,25 +3650,25 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3686,17 +3687,17 @@
         <v>55</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3745,7 +3746,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3763,25 +3764,25 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3800,19 +3801,19 @@
         <v>55</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3861,7 +3862,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3879,25 +3880,25 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3916,19 +3917,19 @@
         <v>55</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3977,7 +3978,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3995,25 +3996,25 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4032,19 +4033,19 @@
         <v>55</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4093,7 +4094,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4114,22 +4115,22 @@
         <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4148,13 +4149,13 @@
         <v>55</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4205,7 +4206,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4217,27 +4218,27 @@
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4260,13 +4261,13 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4317,7 +4318,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4341,7 +4342,7 @@
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4349,11 +4350,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4372,16 +4373,16 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4431,7 +4432,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4455,7 +4456,7 @@
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4463,11 +4464,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4486,16 +4487,16 @@
         <v>55</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4545,7 +4546,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4577,7 +4578,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4600,13 +4601,13 @@
         <v>55</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4633,14 +4634,14 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4675,13 +4676,13 @@
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4689,7 +4690,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4712,19 +4713,19 @@
         <v>55</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4773,7 +4774,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>54</v>
@@ -4791,13 +4792,13 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4805,7 +4806,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4828,19 +4829,19 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -4889,7 +4890,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4910,10 +4911,10 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -4921,11 +4922,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4944,17 +4945,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5003,7 +5004,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5024,10 +5025,10 @@
         <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5035,7 +5036,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5058,16 +5059,16 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5117,7 +5118,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5141,7 +5142,7 @@
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5149,11 +5150,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5172,17 +5173,17 @@
         <v>55</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5231,7 +5232,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5243,7 +5244,7 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>44</v>
@@ -5252,10 +5253,10 @@
         <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5263,7 +5264,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5286,13 +5287,13 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5343,7 +5344,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5367,7 +5368,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5375,11 +5376,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5398,16 +5399,16 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5457,7 +5458,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5481,7 +5482,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5489,11 +5490,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5512,16 +5513,16 @@
         <v>55</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5571,7 +5572,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5603,7 +5604,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5626,19 +5627,19 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5687,7 +5688,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5711,7 +5712,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5719,7 +5720,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5742,13 +5743,13 @@
         <v>55</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5799,7 +5800,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>54</v>
@@ -5823,7 +5824,7 @@
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -5831,11 +5832,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5854,17 +5855,17 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -5913,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5934,10 +5935,10 @@
         <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -5945,7 +5946,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5968,13 +5969,13 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6001,14 +6002,14 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6025,7 +6026,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6046,10 +6047,10 @@
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6057,7 +6058,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6080,19 +6081,19 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6141,7 +6142,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6162,10 +6163,10 @@
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
